--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/61/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/61/FD_Curve.xlsx
@@ -463,1102 +463,1102 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0310005</v>
+        <v>0.0310003</v>
       </c>
       <c r="B3" t="n">
-        <v>1.11364</v>
+        <v>0.691568</v>
       </c>
       <c r="C3" t="n">
-        <v>1113.64</v>
+        <v>691.568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0620038</v>
+        <v>0.0620037</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>0.936419</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>936.419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0929936</v>
+        <v>0.0929934</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>1.05813</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>1058.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>1.11253</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>1112.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>1.11683</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>1116.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>1.12059</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>1120.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216898</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>1.12326</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>1123.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>1.12584</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>1125.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278803</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0216</v>
+        <v>1.12812</v>
       </c>
       <c r="C11" t="n">
-        <v>10021.6</v>
+        <v>1128.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309783</v>
+        <v>0.309728</v>
       </c>
       <c r="B12" t="n">
-        <v>11.18</v>
+        <v>1.1302</v>
       </c>
       <c r="C12" t="n">
-        <v>11180</v>
+        <v>1130.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340708</v>
+        <v>0.340653</v>
       </c>
       <c r="B13" t="n">
-        <v>11.6045</v>
+        <v>1.13213</v>
       </c>
       <c r="C13" t="n">
-        <v>11604.5</v>
+        <v>1132.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371633</v>
+        <v>0.371578</v>
       </c>
       <c r="B14" t="n">
-        <v>11.6148</v>
+        <v>1.13394</v>
       </c>
       <c r="C14" t="n">
-        <v>11614.8</v>
+        <v>1133.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402558</v>
+        <v>0.402503</v>
       </c>
       <c r="B15" t="n">
-        <v>11.647</v>
+        <v>1.13564</v>
       </c>
       <c r="C15" t="n">
-        <v>11647</v>
+        <v>1135.64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433478</v>
+        <v>0.433428</v>
       </c>
       <c r="B16" t="n">
-        <v>11.6235</v>
+        <v>1.13723</v>
       </c>
       <c r="C16" t="n">
-        <v>11623.5</v>
+        <v>1137.23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464403</v>
+        <v>0.464348</v>
       </c>
       <c r="B17" t="n">
-        <v>11.5934</v>
+        <v>1.13875</v>
       </c>
       <c r="C17" t="n">
-        <v>11593.4</v>
+        <v>1138.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495328</v>
+        <v>0.495273</v>
       </c>
       <c r="B18" t="n">
-        <v>11.5601</v>
+        <v>1.14018</v>
       </c>
       <c r="C18" t="n">
-        <v>11560.1</v>
+        <v>1140.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526253</v>
+        <v>0.5261980000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>11.5227</v>
+        <v>1.14154</v>
       </c>
       <c r="C19" t="n">
-        <v>11522.7</v>
+        <v>1141.54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557178</v>
+        <v>0.557123</v>
       </c>
       <c r="B20" t="n">
-        <v>11.4839</v>
+        <v>1.14284</v>
       </c>
       <c r="C20" t="n">
-        <v>11483.9</v>
+        <v>1142.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588103</v>
+        <v>0.588048</v>
       </c>
       <c r="B21" t="n">
-        <v>11.4433</v>
+        <v>1.14408</v>
       </c>
       <c r="C21" t="n">
-        <v>11443.3</v>
+        <v>1144.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191449999999999</v>
+        <v>0.6190909999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>11.3988</v>
+        <v>1.14526</v>
       </c>
       <c r="C22" t="n">
-        <v>11398.8</v>
+        <v>1145.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650318</v>
+        <v>0.650268</v>
       </c>
       <c r="B23" t="n">
-        <v>11.3508</v>
+        <v>1.1464</v>
       </c>
       <c r="C23" t="n">
-        <v>11350.8</v>
+        <v>1146.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681495</v>
+        <v>0.68144</v>
       </c>
       <c r="B24" t="n">
-        <v>11.2999</v>
+        <v>1.14748</v>
       </c>
       <c r="C24" t="n">
-        <v>11299.9</v>
+        <v>1147.48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126670000000001</v>
+        <v>0.7126130000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>11.2455</v>
+        <v>1.14852</v>
       </c>
       <c r="C25" t="n">
-        <v>11245.5</v>
+        <v>1148.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438439999999999</v>
+        <v>0.74379</v>
       </c>
       <c r="B26" t="n">
-        <v>11.1871</v>
+        <v>1.14952</v>
       </c>
       <c r="C26" t="n">
-        <v>11187.1</v>
+        <v>1149.52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775017</v>
+        <v>0.774962</v>
       </c>
       <c r="B27" t="n">
-        <v>11.1252</v>
+        <v>1.15047</v>
       </c>
       <c r="C27" t="n">
-        <v>11125.2</v>
+        <v>1150.47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80619</v>
+        <v>0.806135</v>
       </c>
       <c r="B28" t="n">
-        <v>11.0599</v>
+        <v>1.15139</v>
       </c>
       <c r="C28" t="n">
-        <v>11059.9</v>
+        <v>1151.39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837367</v>
+        <v>0.8373119999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>10.9919</v>
+        <v>1.15226</v>
       </c>
       <c r="C29" t="n">
-        <v>10991.9</v>
+        <v>1152.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685389999999999</v>
+        <v>0.868484</v>
       </c>
       <c r="B30" t="n">
-        <v>10.9202</v>
+        <v>1.1531</v>
       </c>
       <c r="C30" t="n">
-        <v>10920.2</v>
+        <v>1153.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899712</v>
+        <v>0.899657</v>
       </c>
       <c r="B31" t="n">
-        <v>10.8416</v>
+        <v>1.1539</v>
       </c>
       <c r="C31" t="n">
-        <v>10841.6</v>
+        <v>1153.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930889</v>
+        <v>0.9308340000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>10.7565</v>
+        <v>1.15466</v>
       </c>
       <c r="C32" t="n">
-        <v>10756.5</v>
+        <v>1154.66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620610000000001</v>
+        <v>0.9619529999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>10.6647</v>
+        <v>1.1554</v>
       </c>
       <c r="C33" t="n">
-        <v>10664.7</v>
+        <v>1155.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993238</v>
+        <v>0.992924</v>
       </c>
       <c r="B34" t="n">
-        <v>10.5653</v>
+        <v>1.15609</v>
       </c>
       <c r="C34" t="n">
-        <v>10565.3</v>
+        <v>1156.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02455</v>
+        <v>1.02389</v>
       </c>
       <c r="B35" t="n">
-        <v>10.4586</v>
+        <v>1.15676</v>
       </c>
       <c r="C35" t="n">
-        <v>10458.6</v>
+        <v>1156.76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05593</v>
+        <v>1.05486</v>
       </c>
       <c r="B36" t="n">
-        <v>10.3459</v>
+        <v>1.15739</v>
       </c>
       <c r="C36" t="n">
-        <v>10345.9</v>
+        <v>1157.39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.087</v>
+        <v>1.08583</v>
       </c>
       <c r="B37" t="n">
-        <v>10.2257</v>
+        <v>1.158</v>
       </c>
       <c r="C37" t="n">
-        <v>10225.7</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11797</v>
+        <v>1.11672</v>
       </c>
       <c r="B38" t="n">
-        <v>10.0994</v>
+        <v>1.15857</v>
       </c>
       <c r="C38" t="n">
-        <v>10099.4</v>
+        <v>1158.57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14899</v>
+        <v>1.14777</v>
       </c>
       <c r="B39" t="n">
-        <v>9.966180000000001</v>
+        <v>1.15913</v>
       </c>
       <c r="C39" t="n">
-        <v>9966.18</v>
+        <v>1159.13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18004</v>
+        <v>1.17883</v>
       </c>
       <c r="B40" t="n">
-        <v>9.82771</v>
+        <v>1.15965</v>
       </c>
       <c r="C40" t="n">
-        <v>9827.709999999999</v>
+        <v>1159.65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21101</v>
+        <v>1.20988</v>
       </c>
       <c r="B41" t="n">
-        <v>9.683209999999999</v>
+        <v>1.16016</v>
       </c>
       <c r="C41" t="n">
-        <v>9683.209999999999</v>
+        <v>1160.16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24226</v>
+        <v>1.24047</v>
       </c>
       <c r="B42" t="n">
-        <v>9.531889999999999</v>
+        <v>1.16062</v>
       </c>
       <c r="C42" t="n">
-        <v>9531.889999999999</v>
+        <v>1160.62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27311</v>
+        <v>1.2719</v>
       </c>
       <c r="B43" t="n">
-        <v>9.377510000000001</v>
+        <v>1.16107</v>
       </c>
       <c r="C43" t="n">
-        <v>9377.51</v>
+        <v>1161.07</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30421</v>
+        <v>1.30347</v>
       </c>
       <c r="B44" t="n">
-        <v>9.2165</v>
+        <v>1.16151</v>
       </c>
       <c r="C44" t="n">
-        <v>9216.5</v>
+        <v>1161.51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33522</v>
+        <v>1.3349</v>
       </c>
       <c r="B45" t="n">
-        <v>9.052440000000001</v>
+        <v>1.16192</v>
       </c>
       <c r="C45" t="n">
-        <v>9052.440000000001</v>
+        <v>1161.92</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36615</v>
+        <v>1.36604</v>
       </c>
       <c r="B46" t="n">
-        <v>8.88449</v>
+        <v>1.16231</v>
       </c>
       <c r="C46" t="n">
-        <v>8884.49</v>
+        <v>1162.31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39724</v>
+        <v>1.39719</v>
       </c>
       <c r="B47" t="n">
-        <v>8.713229999999999</v>
+        <v>1.16267</v>
       </c>
       <c r="C47" t="n">
-        <v>8713.23</v>
+        <v>1162.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42811</v>
+        <v>1.42834</v>
       </c>
       <c r="B48" t="n">
-        <v>8.53992</v>
+        <v>1.16301</v>
       </c>
       <c r="C48" t="n">
-        <v>8539.92</v>
+        <v>1163.01</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45928</v>
+        <v>1.45949</v>
       </c>
       <c r="B49" t="n">
-        <v>8.36482</v>
+        <v>1.16332</v>
       </c>
       <c r="C49" t="n">
-        <v>8364.82</v>
+        <v>1163.32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49002</v>
+        <v>1.49063</v>
       </c>
       <c r="B50" t="n">
-        <v>8.190670000000001</v>
+        <v>1.16361</v>
       </c>
       <c r="C50" t="n">
-        <v>8190.67</v>
+        <v>1163.61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52127</v>
+        <v>1.52178</v>
       </c>
       <c r="B51" t="n">
-        <v>8.01432</v>
+        <v>1.16388</v>
       </c>
       <c r="C51" t="n">
-        <v>8014.32</v>
+        <v>1163.88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55206</v>
+        <v>1.55275</v>
       </c>
       <c r="B52" t="n">
-        <v>7.84061</v>
+        <v>1.16413</v>
       </c>
       <c r="C52" t="n">
-        <v>7840.61</v>
+        <v>1164.13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58332</v>
+        <v>1.58347</v>
       </c>
       <c r="B53" t="n">
-        <v>7.66521</v>
+        <v>1.16436</v>
       </c>
       <c r="C53" t="n">
-        <v>7665.21</v>
+        <v>1164.36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61416</v>
+        <v>1.61419</v>
       </c>
       <c r="B54" t="n">
-        <v>7.49399</v>
+        <v>1.16457</v>
       </c>
       <c r="C54" t="n">
-        <v>7493.99</v>
+        <v>1164.57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64527</v>
+        <v>1.6449</v>
       </c>
       <c r="B55" t="n">
-        <v>7.32439</v>
+        <v>1.16476</v>
       </c>
       <c r="C55" t="n">
-        <v>7324.39</v>
+        <v>1164.76</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67626</v>
+        <v>1.67563</v>
       </c>
       <c r="B56" t="n">
-        <v>7.16062</v>
+        <v>1.16493</v>
       </c>
       <c r="C56" t="n">
-        <v>7160.62</v>
+        <v>1164.93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70711</v>
+        <v>1.70635</v>
       </c>
       <c r="B57" t="n">
-        <v>7.00266</v>
+        <v>1.16508</v>
       </c>
       <c r="C57" t="n">
-        <v>7002.66</v>
+        <v>1165.08</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73836</v>
+        <v>1.73707</v>
       </c>
       <c r="B58" t="n">
-        <v>6.84911</v>
+        <v>1.1652</v>
       </c>
       <c r="C58" t="n">
-        <v>6849.11</v>
+        <v>1165.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76899</v>
+        <v>1.76763</v>
       </c>
       <c r="B59" t="n">
-        <v>6.70388</v>
+        <v>1.16531</v>
       </c>
       <c r="C59" t="n">
-        <v>6703.88</v>
+        <v>1165.31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80035</v>
+        <v>1.79897</v>
       </c>
       <c r="B60" t="n">
-        <v>6.561970000000001</v>
+        <v>1.1654</v>
       </c>
       <c r="C60" t="n">
-        <v>6561.97</v>
+        <v>1165.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83134</v>
+        <v>1.8303</v>
       </c>
       <c r="B61" t="n">
-        <v>6.42743</v>
+        <v>1.16548</v>
       </c>
       <c r="C61" t="n">
-        <v>6427.43</v>
+        <v>1165.48</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86199</v>
+        <v>1.86164</v>
       </c>
       <c r="B62" t="n">
-        <v>6.30012</v>
+        <v>1.16553</v>
       </c>
       <c r="C62" t="n">
-        <v>6300.12</v>
+        <v>1165.53</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89338</v>
+        <v>1.89298</v>
       </c>
       <c r="B63" t="n">
-        <v>6.1751</v>
+        <v>1.16556</v>
       </c>
       <c r="C63" t="n">
-        <v>6175.1</v>
+        <v>1165.56</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92419</v>
+        <v>1.92432</v>
       </c>
       <c r="B64" t="n">
-        <v>6.05857</v>
+        <v>1.16557</v>
       </c>
       <c r="C64" t="n">
-        <v>6058.57</v>
+        <v>1165.57</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95498</v>
+        <v>1.95566</v>
       </c>
       <c r="B65" t="n">
-        <v>5.94667</v>
+        <v>1.16557</v>
       </c>
       <c r="C65" t="n">
-        <v>5946.67</v>
+        <v>1165.57</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98644</v>
+        <v>1.98673</v>
       </c>
       <c r="B66" t="n">
-        <v>5.83838</v>
+        <v>1.16555</v>
       </c>
       <c r="C66" t="n">
-        <v>5838.38</v>
+        <v>1165.55</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01715</v>
+        <v>2.01763</v>
       </c>
       <c r="B67" t="n">
-        <v>5.73742</v>
+        <v>1.16551</v>
       </c>
       <c r="C67" t="n">
-        <v>5737.42</v>
+        <v>1165.51</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04757</v>
+        <v>2.04853</v>
       </c>
       <c r="B68" t="n">
-        <v>5.6415</v>
+        <v>1.16545</v>
       </c>
       <c r="C68" t="n">
-        <v>5641.5</v>
+        <v>1165.45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07957</v>
+        <v>2.07942</v>
       </c>
       <c r="B69" t="n">
-        <v>5.546729999999999</v>
+        <v>1.16538</v>
       </c>
       <c r="C69" t="n">
-        <v>5546.73</v>
+        <v>1165.38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11021</v>
+        <v>2.11032</v>
       </c>
       <c r="B70" t="n">
-        <v>5.45798</v>
+        <v>1.16529</v>
       </c>
       <c r="C70" t="n">
-        <v>5457.98</v>
+        <v>1165.29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14061</v>
+        <v>2.14121</v>
       </c>
       <c r="B71" t="n">
-        <v>5.37481</v>
+        <v>1.16519</v>
       </c>
       <c r="C71" t="n">
-        <v>5374.81</v>
+        <v>1165.19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17242</v>
+        <v>2.17211</v>
       </c>
       <c r="B72" t="n">
-        <v>5.29324</v>
+        <v>1.16507</v>
       </c>
       <c r="C72" t="n">
-        <v>5293.24</v>
+        <v>1165.07</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20332</v>
+        <v>2.20301</v>
       </c>
       <c r="B73" t="n">
-        <v>5.21508</v>
+        <v>1.16493</v>
       </c>
       <c r="C73" t="n">
-        <v>5215.08</v>
+        <v>1164.93</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23465</v>
+        <v>2.23391</v>
       </c>
       <c r="B74" t="n">
-        <v>5.18107</v>
+        <v>1.16477</v>
       </c>
       <c r="C74" t="n">
-        <v>5181.07</v>
+        <v>1164.77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26546</v>
+        <v>2.2648</v>
       </c>
       <c r="B75" t="n">
-        <v>5.17271</v>
+        <v>1.1646</v>
       </c>
       <c r="C75" t="n">
-        <v>5172.71</v>
+        <v>1164.6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29532</v>
+        <v>2.29596</v>
       </c>
       <c r="B76" t="n">
-        <v>5.16391</v>
+        <v>1.16442</v>
       </c>
       <c r="C76" t="n">
-        <v>5163.91</v>
+        <v>1164.42</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32519</v>
+        <v>2.32705</v>
       </c>
       <c r="B77" t="n">
-        <v>5.15371</v>
+        <v>1.16421</v>
       </c>
       <c r="C77" t="n">
-        <v>5153.71</v>
+        <v>1164.21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35724</v>
+        <v>2.35813</v>
       </c>
       <c r="B78" t="n">
-        <v>5.14059</v>
+        <v>1.164</v>
       </c>
       <c r="C78" t="n">
-        <v>5140.59</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38982</v>
+        <v>2.38922</v>
       </c>
       <c r="B79" t="n">
-        <v>5.11895</v>
+        <v>1.16376</v>
       </c>
       <c r="C79" t="n">
-        <v>5118.95</v>
+        <v>1163.76</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42104</v>
+        <v>2.42031</v>
       </c>
       <c r="B80" t="n">
-        <v>5.09443</v>
+        <v>1.1635</v>
       </c>
       <c r="C80" t="n">
-        <v>5094.43</v>
+        <v>1163.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45228</v>
+        <v>2.45139</v>
       </c>
       <c r="B81" t="n">
-        <v>5.074590000000001</v>
+        <v>1.16322</v>
       </c>
       <c r="C81" t="n">
-        <v>5074.59</v>
+        <v>1163.22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48556</v>
+        <v>2.48248</v>
       </c>
       <c r="B82" t="n">
-        <v>5.04245</v>
+        <v>1.16292</v>
       </c>
       <c r="C82" t="n">
-        <v>5042.45</v>
+        <v>1162.92</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51884</v>
+        <v>2.51356</v>
       </c>
       <c r="B83" t="n">
-        <v>5.010899999999999</v>
+        <v>1.16261</v>
       </c>
       <c r="C83" t="n">
-        <v>5010.9</v>
+        <v>1162.61</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55212</v>
+        <v>2.54465</v>
       </c>
       <c r="B84" t="n">
-        <v>4.98892</v>
+        <v>1.16228</v>
       </c>
       <c r="C84" t="n">
-        <v>4988.92</v>
+        <v>1162.28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.5854</v>
+        <v>2.57573</v>
       </c>
       <c r="B85" t="n">
-        <v>4.95442</v>
+        <v>1.16193</v>
       </c>
       <c r="C85" t="n">
-        <v>4954.42</v>
+        <v>1161.93</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61617</v>
+        <v>2.60682</v>
       </c>
       <c r="B86" t="n">
-        <v>4.93616</v>
+        <v>1.16156</v>
       </c>
       <c r="C86" t="n">
-        <v>4936.16</v>
+        <v>1161.56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64689</v>
+        <v>2.63791</v>
       </c>
       <c r="B87" t="n">
-        <v>4.897069999999999</v>
+        <v>1.16117</v>
       </c>
       <c r="C87" t="n">
-        <v>4897.07</v>
+        <v>1161.17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67761</v>
+        <v>2.66896</v>
       </c>
       <c r="B88" t="n">
-        <v>4.87295</v>
+        <v>1.16077</v>
       </c>
       <c r="C88" t="n">
-        <v>4872.95</v>
+        <v>1160.77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70833</v>
+        <v>2.69913</v>
       </c>
       <c r="B89" t="n">
-        <v>4.84544</v>
+        <v>1.16036</v>
       </c>
       <c r="C89" t="n">
-        <v>4845.44</v>
+        <v>1160.36</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73905</v>
+        <v>2.7293</v>
       </c>
       <c r="B90" t="n">
-        <v>4.815090000000001</v>
+        <v>1.15993</v>
       </c>
       <c r="C90" t="n">
-        <v>4815.09</v>
+        <v>1159.93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76977</v>
+        <v>2.75948</v>
       </c>
       <c r="B91" t="n">
-        <v>4.78993</v>
+        <v>1.15949</v>
       </c>
       <c r="C91" t="n">
-        <v>4789.93</v>
+        <v>1159.49</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80012</v>
+        <v>2.78964</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77146</v>
+        <v>1.15903</v>
       </c>
       <c r="C92" t="n">
-        <v>4771.46</v>
+        <v>1159.03</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82828</v>
+        <v>2.81982</v>
       </c>
       <c r="B93" t="n">
-        <v>4.73338</v>
+        <v>1.15854</v>
       </c>
       <c r="C93" t="n">
-        <v>4733.38</v>
+        <v>1158.54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85643</v>
+        <v>2.84999</v>
       </c>
       <c r="B94" t="n">
-        <v>4.70425</v>
+        <v>1.15803</v>
       </c>
       <c r="C94" t="n">
-        <v>4704.25</v>
+        <v>1158.03</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88459</v>
+        <v>2.88016</v>
       </c>
       <c r="B95" t="n">
-        <v>4.69253</v>
+        <v>1.1575</v>
       </c>
       <c r="C95" t="n">
-        <v>4692.53</v>
+        <v>1157.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91276</v>
+        <v>2.91033</v>
       </c>
       <c r="B96" t="n">
-        <v>4.65398</v>
+        <v>1.15695</v>
       </c>
       <c r="C96" t="n">
-        <v>4653.98</v>
+        <v>1156.95</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94165</v>
+        <v>2.9405</v>
       </c>
       <c r="B97" t="n">
-        <v>4.64777</v>
+        <v>1.15638</v>
       </c>
       <c r="C97" t="n">
-        <v>4647.77</v>
+        <v>1156.38</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97685</v>
+        <v>2.97184</v>
       </c>
       <c r="B98" t="n">
-        <v>4.60225</v>
+        <v>1.15578</v>
       </c>
       <c r="C98" t="n">
-        <v>4602.25</v>
+        <v>1155.78</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01205</v>
+        <v>3.00434</v>
       </c>
       <c r="B99" t="n">
-        <v>4.56792</v>
+        <v>1.15513</v>
       </c>
       <c r="C99" t="n">
-        <v>4567.92</v>
+        <v>1155.13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04725</v>
+        <v>3.03641</v>
       </c>
       <c r="B100" t="n">
-        <v>4.51792</v>
+        <v>1.15445</v>
       </c>
       <c r="C100" t="n">
-        <v>4517.92</v>
+        <v>1154.45</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07995</v>
+        <v>3.06792</v>
       </c>
       <c r="B101" t="n">
-        <v>4.43987</v>
+        <v>1.15375</v>
       </c>
       <c r="C101" t="n">
-        <v>4439.87</v>
+        <v>1153.75</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11195</v>
+        <v>3.09942</v>
       </c>
       <c r="B102" t="n">
-        <v>4.420640000000001</v>
+        <v>1.15302</v>
       </c>
       <c r="C102" t="n">
-        <v>4420.64</v>
+        <v>1153.02</v>
       </c>
     </row>
   </sheetData>
